--- a/excel/data.xlsx
+++ b/excel/data.xlsx
@@ -3,13 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8964" windowWidth="17280" xWindow="1884" yWindow="1884"/>
   </bookViews>
   <sheets>
     <sheet name="表格数据" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="统计结果1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="统计结果2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="统计结果1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="统计结果2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="181029" fullCalcOnLoad="1"/>
@@ -343,7 +342,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -404,12 +403,12 @@
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>1:金牌2</t>
+          <t>1:青铜1</t>
         </is>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>尾骑手</t>
+          <t>全能骑手</t>
         </is>
       </c>
     </row>
@@ -432,12 +431,12 @@
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>1:铜牌2</t>
+          <t>1:青铜2</t>
         </is>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>尾骑手</t>
+          <t>全能骑手</t>
         </is>
       </c>
     </row>
@@ -460,12 +459,12 @@
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>1:铜牌2</t>
+          <t>1:黄金3</t>
         </is>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>尾骑手</t>
+          <t>全能骑手</t>
         </is>
       </c>
     </row>
@@ -488,12 +487,12 @@
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>1:银牌2</t>
+          <t>1:白银2</t>
         </is>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>尾骑手</t>
+          <t>尾部骑手</t>
         </is>
       </c>
     </row>
@@ -516,12 +515,12 @@
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>1:青牌3</t>
+          <t>1:白银3</t>
         </is>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>短骑手</t>
+          <t>时长短板骑手</t>
         </is>
       </c>
     </row>
@@ -544,12 +543,12 @@
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>1:金牌2</t>
+          <t>1:王者</t>
         </is>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>出骑手</t>
+          <t>时长短板骑手</t>
         </is>
       </c>
     </row>
@@ -724,143 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
-  <cols>
-    <col customWidth="1" max="2" min="1" style="2" width="14.44140625"/>
-    <col customWidth="1" max="3" min="3" style="2" width="17.44140625"/>
-    <col customWidth="1" max="9" min="9" style="2" width="16.44140625"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>骑手等级</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>合计</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>骑手分层（众包）</t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t>合计</t>
-        </is>
-      </c>
-      <c r="F1" s="0" t="inlineStr">
-        <is>
-          <t>姓名</t>
-        </is>
-      </c>
-      <c r="G1" s="0" t="inlineStr">
-        <is>
-          <t>骑手ID</t>
-        </is>
-      </c>
-      <c r="H1" s="0" t="inlineStr">
-        <is>
-          <t>站点名称</t>
-        </is>
-      </c>
-      <c r="I1" s="0" t="inlineStr">
-        <is>
-          <t>当天外卖完成单</t>
-        </is>
-      </c>
-      <c r="J1" s="0" t="inlineStr">
-        <is>
-          <t>骑手等级</t>
-        </is>
-      </c>
-      <c r="K1" s="0" t="inlineStr">
-        <is>
-          <t>骑手分层</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>铜牌</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>尾骑手</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>银牌</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>尾骑手</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>金牌</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>尾骑手</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>王者</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>出骑手</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>青牌</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>短骑手</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,6 +734,8 @@
     <col customWidth="1" hidden="1" max="6" min="6" style="2" width="13"/>
     <col customWidth="1" hidden="1" max="7" min="7" style="2" width="13"/>
     <col customWidth="1" hidden="1" max="8" min="8" style="2" width="13"/>
+    <col customWidth="1" hidden="1" max="9" min="9" style="2" width="13"/>
+    <col customWidth="1" hidden="1" max="10" min="10" style="2" width="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -914,6 +779,16 @@
           <t>合计</t>
         </is>
       </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>骑手分层（众包）</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>合计</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
@@ -948,6 +823,15 @@
         <f>COUNTIF(F:F,G2)</f>
         <v/>
       </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>全能骑手</t>
+        </is>
+      </c>
+      <c r="J2" s="0">
+        <f>COUNTIF(E:E,I2)</f>
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
@@ -982,6 +866,15 @@
         <f>COUNTIF(F:F,G3)</f>
         <v/>
       </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>效能短板骑手</t>
+        </is>
+      </c>
+      <c r="J3" s="0">
+        <f>COUNTIF(E:E,I3)</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
@@ -1016,6 +909,15 @@
         <f>COUNTIF(F:F,G4)</f>
         <v/>
       </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>出勤短板骑手</t>
+        </is>
+      </c>
+      <c r="J4" s="0">
+        <f>COUNTIF(E:E,I4)</f>
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
@@ -1050,6 +952,15 @@
         <f>COUNTIF(F:F,G5)</f>
         <v/>
       </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>时长短板骑手</t>
+        </is>
+      </c>
+      <c r="J5" s="0">
+        <f>COUNTIF(E:E,I5)</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
@@ -1073,6 +984,15 @@
       </c>
       <c r="F6" s="0">
         <f>MID(D6,3,2)</f>
+        <v/>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>尾部骑手</t>
+        </is>
+      </c>
+      <c r="J6" s="0">
+        <f>COUNTIF(E:E,I6)</f>
         <v/>
       </c>
     </row>
@@ -1081,7 +1001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1133,7 +1053,7 @@
         </is>
       </c>
       <c r="D2">
-        <f>COUNTIF(表格数据!F:F,C2)</f>
+        <f>统计结果1!J2</f>
         <v/>
       </c>
     </row>
@@ -1153,7 +1073,7 @@
         </is>
       </c>
       <c r="D3">
-        <f>COUNTIF(表格数据!F:F,C3)</f>
+        <f>统计结果1!J3</f>
         <v/>
       </c>
     </row>
@@ -1173,7 +1093,7 @@
         </is>
       </c>
       <c r="D4">
-        <f>COUNTIF(表格数据!F:F,C4)</f>
+        <f>统计结果1!J4</f>
         <v/>
       </c>
     </row>
@@ -1193,7 +1113,7 @@
         </is>
       </c>
       <c r="D5">
-        <f>COUNTIF(表格数据!F:F,C5)</f>
+        <f>统计结果1!J5</f>
         <v/>
       </c>
     </row>
@@ -1204,7 +1124,7 @@
         </is>
       </c>
       <c r="D6">
-        <f>COUNTIF(表格数据!F:F,C6)</f>
+        <f>统计结果1!J6</f>
         <v/>
       </c>
     </row>
